--- a/examples/array-map/新手任务.xlsx
+++ b/examples/array-map/新手任务.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Target</t>
   </si>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map&lt;string,uint32&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,96 +172,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Food=10;Gas=100</t>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide_04</t>
+  </si>
+  <si>
+    <t>Guide_06</t>
+  </si>
+  <si>
+    <t>array-delim</t>
+  </si>
+  <si>
+    <t>map-delim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array类型分割符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map类型分割符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string uint32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food=10&amp;Gas=100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4\5\6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7\8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9\10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11\12\13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14\15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16\17\18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19\20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1\2\3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guide_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guide_04</t>
-  </si>
-  <si>
-    <t>Guide_06</t>
-  </si>
-  <si>
-    <t>array-delim</t>
-  </si>
-  <si>
-    <t>map-delim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array类型分割符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map类型分割符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array&lt;int&gt;</t>
+    <t>Food=10&amp;Gas=101</t>
+  </si>
+  <si>
+    <t>Food=10&amp;Gas=102</t>
+  </si>
+  <si>
+    <t>Food=10&amp;Gas=103</t>
+  </si>
+  <si>
+    <t>Food=10&amp;Gas=104</t>
+  </si>
+  <si>
+    <t>Food=10&amp;Gas=105</t>
+  </si>
+  <si>
+    <t>Food=10&amp;Gas=106</t>
+  </si>
+  <si>
+    <t>1+2+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+5+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+4</t>
+  </si>
+  <si>
+    <t>4+5+7</t>
+  </si>
+  <si>
+    <t>1+2+5</t>
+  </si>
+  <si>
+    <t>4+5+8</t>
+  </si>
+  <si>
+    <t>1+2+6</t>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,21 +609,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
@@ -620,7 +632,7 @@
     <col min="6" max="8" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -631,27 +643,27 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -660,7 +672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -668,19 +680,19 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -690,19 +702,19 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -711,16 +723,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,37 +742,37 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -770,19 +782,19 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -790,17 +802,17 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -811,16 +823,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -830,11 +842,11 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>54</v>
+      <c r="D11" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -848,27 +860,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -876,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -884,7 +896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -892,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -900,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -908,26 +920,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/examples/array-map/新手任务.xlsx
+++ b/examples/array-map/新手任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Food=10&amp;Gas=100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -267,6 +263,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -743,10 +743,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -763,10 +763,10 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -783,10 +783,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -803,10 +803,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -823,10 +823,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -843,10 +843,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
@@ -936,7 +936,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
